--- a/excel/insights/responseTimeInsights.xlsx
+++ b/excel/insights/responseTimeInsights.xlsx
@@ -489,7 +489,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart152.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart160.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -919,11 +919,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="23509631"/>
-        <c:axId val="40332176"/>
+        <c:axId val="71116217"/>
+        <c:axId val="44530271"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23509631"/>
+        <c:axId val="71116217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,12 +979,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40332176"/>
+        <c:crossAx val="44530271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40332176"/>
+        <c:axId val="44530271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1049,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23509631"/>
+        <c:crossAx val="71116217"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1107,7 +1107,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart153.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart161.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4275,11 +4275,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86317228"/>
-        <c:axId val="64672346"/>
+        <c:axId val="35917865"/>
+        <c:axId val="54797060"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86317228"/>
+        <c:axId val="35917865"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,12 +4307,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64672346"/>
+        <c:crossAx val="54797060"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64672346"/>
+        <c:axId val="54797060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4349,7 +4349,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86317228"/>
+        <c:crossAx val="35917865"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4407,7 +4407,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart154.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart162.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6072,11 +6072,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="95182578"/>
-        <c:axId val="25721729"/>
+        <c:axId val="68353687"/>
+        <c:axId val="87380488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95182578"/>
+        <c:axId val="68353687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6104,12 +6104,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25721729"/>
+        <c:crossAx val="87380488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25721729"/>
+        <c:axId val="87380488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6146,7 +6146,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95182578"/>
+        <c:crossAx val="68353687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6194,7 +6194,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart155.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart163.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9373,11 +9373,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37827151"/>
-        <c:axId val="10647171"/>
+        <c:axId val="77702419"/>
+        <c:axId val="44792562"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37827151"/>
+        <c:axId val="77702419"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9405,12 +9405,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10647171"/>
+        <c:crossAx val="44792562"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10647171"/>
+        <c:axId val="44792562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9447,7 +9447,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37827151"/>
+        <c:crossAx val="77702419"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9627,8 +9627,8 @@
   </sheetPr>
   <dimension ref="B1:DN159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DN82" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DT74" activeCellId="0" sqref="DT74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DN31" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DR51" activeCellId="0" sqref="DR51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/excel/insights/responseTimeInsights.xlsx
+++ b/excel/insights/responseTimeInsights.xlsx
@@ -489,7 +489,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart160.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -919,11 +919,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71116217"/>
-        <c:axId val="44530271"/>
+        <c:axId val="20902261"/>
+        <c:axId val="33518084"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71116217"/>
+        <c:axId val="20902261"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,12 +979,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44530271"/>
+        <c:crossAx val="33518084"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44530271"/>
+        <c:axId val="33518084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1049,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71116217"/>
+        <c:crossAx val="20902261"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1107,7 +1107,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1755,6 +1755,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2039,6 +2040,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2323,6 +2325,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2607,6 +2610,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2891,6 +2895,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4275,11 +4280,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35917865"/>
-        <c:axId val="54797060"/>
+        <c:axId val="70950362"/>
+        <c:axId val="64415468"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35917865"/>
+        <c:axId val="70950362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,12 +4312,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54797060"/>
+        <c:crossAx val="64415468"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54797060"/>
+        <c:axId val="64415468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4349,7 +4354,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35917865"/>
+        <c:crossAx val="70950362"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4407,7 +4412,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart162.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6072,11 +6077,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="68353687"/>
-        <c:axId val="87380488"/>
+        <c:axId val="63631674"/>
+        <c:axId val="31917876"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68353687"/>
+        <c:axId val="63631674"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6104,12 +6109,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87380488"/>
+        <c:crossAx val="31917876"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87380488"/>
+        <c:axId val="31917876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6146,7 +6151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68353687"/>
+        <c:crossAx val="63631674"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6194,7 +6199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart163.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6234,10 +6239,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0721883553122667"/>
-          <c:y val="0.0764966264128239"/>
-          <c:w val="0.800230156755412"/>
-          <c:h val="0.872491297434355"/>
+          <c:x val="0.0721982423997764"/>
+          <c:y val="0.0764999140450404"/>
+          <c:w val="0.800204949849393"/>
+          <c:h val="0.872442839951865"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -7993,6 +7998,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8277,6 +8283,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8561,6 +8568,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -8845,6 +8853,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9129,6 +9138,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -9373,11 +9383,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="77702419"/>
-        <c:axId val="44792562"/>
+        <c:axId val="82430230"/>
+        <c:axId val="77693690"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77702419"/>
+        <c:axId val="82430230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9405,12 +9415,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44792562"/>
+        <c:crossAx val="77693690"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44792562"/>
+        <c:axId val="77693690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9447,7 +9457,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77702419"/>
+        <c:crossAx val="82430230"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9506,9 +9516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>138</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
+      <xdr:colOff>818640</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9516,8 +9526,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="99506880" y="0"/>
-        <a:ext cx="10932120" cy="5672520"/>
+        <a:off x="99552240" y="0"/>
+        <a:ext cx="10947960" cy="5672160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9536,9 +9546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>139</xdr:col>
-      <xdr:colOff>641160</xdr:colOff>
+      <xdr:colOff>640800</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9546,8 +9556,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="98241120" y="5851440"/>
-        <a:ext cx="12840480" cy="7957440"/>
+        <a:off x="98285040" y="5851440"/>
+        <a:ext cx="12858840" cy="7957080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9566,9 +9576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>172</xdr:col>
-      <xdr:colOff>792720</xdr:colOff>
+      <xdr:colOff>792360</xdr:colOff>
       <xdr:row>305</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9576,8 +9586,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="108763560" y="30235680"/>
-        <a:ext cx="29543400" cy="19484280"/>
+        <a:off x="108822600" y="30235680"/>
+        <a:ext cx="29588760" cy="19483920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9596,9 +9606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>139</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
+      <xdr:colOff>58320</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9606,8 +9616,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="98924760" y="14740920"/>
-        <a:ext cx="11574360" cy="8376480"/>
+        <a:off x="98968680" y="14740920"/>
+        <a:ext cx="11592720" cy="8376120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9627,11 +9637,11 @@
   </sheetPr>
   <dimension ref="B1:DN159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DN31" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DR51" activeCellId="0" sqref="DR51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.98"/>
@@ -9641,16 +9651,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="39.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="32.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="17.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="17.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="67" style="0" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="0" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="67" style="0" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="116" min="116" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="117" min="117" style="0" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="117" min="117" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -9687,19 +9697,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
-        <v>0.013224334669587</v>
+        <v>0.024356799236038</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="true">AVERAGE(B3:INDIRECT(CONCATENATE("B",$F$3+2)))</f>
-        <v>0.013205951627556</v>
+        <v>0.0264049948321793</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">POWER(B3-$C$3, 2)/($F$3-1)</f>
-        <v>9.93930100918961E-012</v>
+        <v>1.23385447060373E-007</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="true">SUM(D3:INDIRECT(CONCATENATE("D",$F$3+2)))</f>
-        <v>4.16132405674176E-010</v>
+        <v>4.89562943978345E-005</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>35</v>
@@ -9709,7 +9719,7 @@
       </c>
       <c r="H3" s="2" t="n">
         <f aca="false">SQRT(E3/F3)*G3</f>
-        <v>6.7583054715511E-006</v>
+        <v>0.00231806878092655</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
@@ -9812,7 +9822,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>0.024478984319179</v>
+      </c>
       <c r="C4" s="2"/>
+      <c r="D4" s="0" t="n">
+        <f aca="false">POWER(B4-$C$3, 2)/($F$3-1)</f>
+        <v>1.09103426358463E-007</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="J4" s="1"/>
       <c r="V4" s="0" t="n">
@@ -9932,11 +9949,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
-        <v>0.013194652550433</v>
+        <v>0.024665585535624</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">POWER(B5-$C$3, 2)/($F$3-1)</f>
-        <v>3.75497481859321E-012</v>
+        <v>8.89866088512664E-008</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -10122,19 +10139,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
-        <v>0.01322500655629</v>
+        <v>0.024677259103551</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">POWER(B6-$C$3, 2)/($F$3-1)</f>
-        <v>1.06791267369601E-011</v>
+        <v>8.77961984699651E-008</v>
       </c>
       <c r="H6" s="3" t="n">
         <f aca="false">C3-H3</f>
-        <v>0.0131991933220845</v>
+        <v>0.0240869260512528</v>
       </c>
       <c r="I6" s="3" t="n">
         <f aca="false">C3+H3</f>
-        <v>0.0132127099330276</v>
+        <v>0.0287230636131059</v>
       </c>
       <c r="J6" s="1"/>
       <c r="O6" s="0" t="s">
@@ -10460,11 +10477,11 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
-        <v>0.013179562472389</v>
+        <v>0.024753205780608</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">POWER(B7-$C$3, 2)/($F$3-1)</f>
-        <v>2.04819856008678E-011</v>
+        <v>8.02472667909077E-008</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>20</v>
@@ -10792,11 +10809,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
-        <v>0.013214652554209</v>
+        <v>0.024768757623989</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">POWER(B8-$C$3, 2)/($F$3-1)</f>
-        <v>2.22665072412835E-012</v>
+        <v>7.87433000431304E-008</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>20</v>
@@ -11122,11 +11139,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
-        <v>0.013239275738601</v>
+        <v>0.024822611891817</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">POWER(B9-$C$3, 2)/($F$3-1)</f>
-        <v>3.2661658145223E-011</v>
+        <v>7.36451697044023E-008</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>20</v>
@@ -11452,11 +11469,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
-        <v>0.013171097040303</v>
+        <v>0.024857411032728</v>
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">POWER(B10-$C$3, 2)/($F$3-1)</f>
-        <v>3.57306544876201E-011</v>
+        <v>7.04416357742403E-008</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>20</v>
@@ -11782,11 +11799,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
-        <v>0.013166344205751</v>
+        <v>0.0248730236769</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">POWER(B11-$C$3, 2)/($F$3-1)</f>
-        <v>4.61396430012201E-011</v>
+        <v>6.90275182531716E-008</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>20</v>
@@ -12112,11 +12129,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
-        <v>0.013208312382475</v>
+        <v>0.02488646830755</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">POWER(B12-$C$3, 2)/($F$3-1)</f>
-        <v>1.63916581983692E-013</v>
+        <v>6.78212590000819E-008</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>20</v>
@@ -12432,14 +12449,17 @@
       <c r="DL12" s="2" t="n">
         <v>0.0264049948321793</v>
       </c>
+      <c r="DM12" s="2" t="n">
+        <v>0.00231806878092655</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
-        <v>0.01319520951175</v>
+        <v>0.024895174334411</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">POWER(B13-$C$3, 2)/($F$3-1)</f>
-        <v>3.39391329382871E-012</v>
+        <v>6.70458216318048E-008</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>20</v>
@@ -12758,11 +12778,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
-        <v>0.013250389142695</v>
+        <v>0.024919733674794</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">POWER(B14-$C$3, 2)/($F$3-1)</f>
-        <v>5.80791985801847E-011</v>
+        <v>6.48823736952225E-008</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>20</v>
@@ -13081,11 +13101,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
-        <v>0.013196409195477</v>
+        <v>0.024922164840702</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">POWER(B15-$C$3, 2)/($F$3-1)</f>
-        <v>2.67817676420203E-012</v>
+        <v>6.46701406948416E-008</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>20</v>
@@ -13404,11 +13424,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
-        <v>0.013176820800448</v>
+        <v>0.024953803570853</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">POWER(B16-$C$3, 2)/($F$3-1)</f>
-        <v>2.49589731764071E-011</v>
+        <v>6.19398846161725E-008</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>20</v>
@@ -13727,11 +13747,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
-        <v>0.013200119053385</v>
+        <v>0.024975894255154</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">POWER(B17-$C$3, 2)/($F$3-1)</f>
-        <v>1.00055651354579E-012</v>
+        <v>6.00684840957085E-008</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>20</v>
@@ -14059,11 +14079,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
-        <v>0.013211631294662</v>
+        <v>0.024978472537378</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">POWER(B18-$C$3, 2)/($F$3-1)</f>
-        <v>9.48782895136706E-013</v>
+        <v>5.9851936987212E-008</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>20</v>
@@ -14389,11 +14409,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
-        <v>0.013238086166397</v>
+        <v>0.025009198430763</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">POWER(B19-$C$3, 2)/($F$3-1)</f>
-        <v>3.03714290153501E-011</v>
+        <v>5.73013998296098E-008</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>20</v>
@@ -14719,11 +14739,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
-        <v>0.013206123474727</v>
+        <v>0.025012592192919</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">POWER(B20-$C$3, 2)/($F$3-1)</f>
-        <v>8.68572063842414E-016</v>
+        <v>5.70230914652674E-008</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>20</v>
@@ -15049,11 +15069,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
-        <v>0.013223125286068</v>
+        <v>0.025015668595935</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">POWER(B21-$C$3, 2)/($F$3-1)</f>
-        <v>8.67454549075883E-012</v>
+        <v>5.67713938446116E-008</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>20</v>
@@ -15379,11 +15399,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
-        <v>0.013198622340396</v>
+        <v>0.0250807892038</v>
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">POWER(B22-$C$3, 2)/($F$3-1)</f>
-        <v>1.57995441982831E-012</v>
+        <v>5.157413371269E-008</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>20</v>
@@ -15702,11 +15722,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
-        <v>0.013211900441081</v>
+        <v>0.025161103481718</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">POWER(B23-$C$3, 2)/($F$3-1)</f>
-        <v>1.04083477514313E-012</v>
+        <v>4.55078144633079E-008</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>20</v>
@@ -16025,11 +16045,11 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
-        <v>0.013226234493183</v>
+        <v>0.025183345910226</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">POWER(B24-$C$3, 2)/($F$3-1)</f>
-        <v>1.2099842295346E-011</v>
+        <v>4.38948849561675E-008</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>20</v>
@@ -16348,11 +16368,11 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
-        <v>0.013211599944157</v>
+        <v>0.025286537031865</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">POWER(B25-$C$3, 2)/($F$3-1)</f>
-        <v>9.38337659553273E-013</v>
+        <v>3.67925838554099E-008</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>20</v>
@@ -16671,11 +16691,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
-        <v>0.013190035012373</v>
+        <v>0.02529053095319</v>
       </c>
       <c r="D26" s="0" t="n">
         <f aca="false">POWER(B26-$C$3, 2)/($F$3-1)</f>
-        <v>7.45113643778323E-012</v>
+        <v>3.65302863991738E-008</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>20</v>
@@ -16994,11 +17014,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
-        <v>0.013222344529003</v>
+        <v>0.0253191108757</v>
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">POWER(B27-$C$3, 2)/($F$3-1)</f>
-        <v>7.90374170147401E-012</v>
+        <v>3.46807049099756E-008</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>20</v>
@@ -17311,11 +17331,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
-        <v>0.013218995227381</v>
+        <v>0.025375267373801</v>
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">POWER(B28-$C$3, 2)/($F$3-1)</f>
-        <v>5.00398518805756E-012</v>
+        <v>3.11864305452431E-008</v>
       </c>
       <c r="O28" s="0" t="s">
         <v>20</v>
@@ -17628,11 +17648,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
-        <v>0.013215543270556</v>
+        <v>0.02547321709804</v>
       </c>
       <c r="D29" s="0" t="n">
         <f aca="false">POWER(B29-$C$3, 2)/($F$3-1)</f>
-        <v>2.70587104232023E-012</v>
+        <v>2.55355807599353E-008</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>20</v>
@@ -17945,11 +17965,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
-        <v>0.013228275800987</v>
+        <v>0.025523731223204</v>
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">POWER(B30-$C$3, 2)/($F$3-1)</f>
-        <v>1.46579035110617E-011</v>
+        <v>2.28419278971822E-008</v>
       </c>
       <c r="O30" s="0" t="s">
         <v>20</v>
@@ -18262,11 +18282,11 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
-        <v>0.013201436521833</v>
+        <v>0.025761519604348</v>
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">POWER(B31-$C$3, 2)/($F$3-1)</f>
-        <v>5.99593520298015E-013</v>
+        <v>1.21782461421342E-008</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>20</v>
@@ -18579,11 +18599,11 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
-        <v>0.01318908467313</v>
+        <v>0.025811503678361</v>
       </c>
       <c r="D32" s="0" t="n">
         <f aca="false">POWER(B32-$C$3, 2)/($F$3-1)</f>
-        <v>8.36747504734659E-012</v>
+        <v>1.03597573429586E-008</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>20</v>
@@ -18896,11 +18916,11 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
-        <v>0.013170825383558</v>
+        <v>0.026019175058797</v>
       </c>
       <c r="D33" s="0" t="n">
         <f aca="false">POWER(B33-$C$3, 2)/($F$3-1)</f>
-        <v>3.62897946296806E-011</v>
+        <v>4.3781440450818E-009</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>20</v>
@@ -19213,11 +19233,11 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
-        <v>0.013182880476179</v>
+        <v>0.026085291235611</v>
       </c>
       <c r="D34" s="0" t="n">
         <f aca="false">POWER(B34-$C$3, 2)/($F$3-1)</f>
-        <v>1.56552360547577E-011</v>
+        <v>3.00618793113867E-009</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>20</v>
@@ -19530,11 +19550,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="n">
-        <v>0.013219193545676</v>
+        <v>0.026160994602793</v>
       </c>
       <c r="D35" s="0" t="n">
         <f aca="false">POWER(B35-$C$3, 2)/($F$3-1)</f>
-        <v>5.15730574988308E-012</v>
+        <v>1.75106211589922E-009</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>20</v>
@@ -19847,11 +19867,11 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="n">
-        <v>0.01319898063411</v>
+        <v>0.028406090988507</v>
       </c>
       <c r="D36" s="0" t="n">
         <f aca="false">POWER(B36-$C$3, 2)/($F$3-1)</f>
-        <v>1.42925734190002E-012</v>
+        <v>1.17776053731454E-007</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>20</v>
@@ -20164,11 +20184,11 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="n">
-        <v>0.013195250947655</v>
+        <v>0.066413801865422</v>
       </c>
       <c r="D37" s="0" t="n">
         <f aca="false">POWER(B37-$C$3, 2)/($F$3-1)</f>
-        <v>3.36778089247867E-012</v>
+        <v>4.70795482418603E-005</v>
       </c>
       <c r="O37" s="0" t="s">
         <v>20</v>
@@ -20480,12 +20500,9 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="n">
-        <v>0.013194897170492</v>
-      </c>
       <c r="D38" s="0" t="n">
         <f aca="false">POWER(B38-$C$3, 2)/($F$3-1)</f>
-        <v>3.59414767589584E-012</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>20</v>
@@ -20800,7 +20817,7 @@
       <c r="B39" s="5"/>
       <c r="D39" s="0" t="n">
         <f aca="false">POWER(B39-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>20</v>
@@ -21115,7 +21132,7 @@
       <c r="B40" s="5"/>
       <c r="D40" s="0" t="n">
         <f aca="false">POWER(B40-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>74</v>
@@ -21322,7 +21339,7 @@
       <c r="B41" s="5"/>
       <c r="D41" s="0" t="n">
         <f aca="false">POWER(B41-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>75</v>
@@ -21393,12 +21410,14 @@
       <c r="B42" s="5"/>
       <c r="D42" s="0" t="n">
         <f aca="false">POWER(B42-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BK42" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="BQ42" s="2"/>
+      <c r="BQ42" s="2" t="n">
+        <v>0.00231806878092655</v>
+      </c>
       <c r="BZ42" s="2"/>
       <c r="CI42" s="2"/>
       <c r="CR42" s="2" t="n">
@@ -21414,13 +21433,13 @@
       <c r="B43" s="7"/>
       <c r="D43" s="0" t="n">
         <f aca="false">POWER(B43-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="n">
         <f aca="false">POWER(B44-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>10</v>
@@ -21531,7 +21550,7 @@
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="n">
         <f aca="false">POWER(B45-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>76</v>
@@ -21792,7 +21811,7 @@
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="0" t="n">
         <f aca="false">POWER(B46-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>76</v>
@@ -22098,7 +22117,7 @@
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="0" t="n">
         <f aca="false">POWER(B47-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>76</v>
@@ -22404,7 +22423,7 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="0" t="n">
         <f aca="false">POWER(B48-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O48" s="0" t="s">
         <v>76</v>
@@ -22710,7 +22729,7 @@
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="0" t="n">
         <f aca="false">POWER(B49-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>76</v>
@@ -23016,7 +23035,7 @@
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="0" t="n">
         <f aca="false">POWER(B50-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>76</v>
@@ -23322,7 +23341,7 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="0" t="n">
         <f aca="false">POWER(B51-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>76</v>
@@ -23628,7 +23647,7 @@
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="0" t="n">
         <f aca="false">POWER(B52-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>76</v>
@@ -23934,7 +23953,7 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="0" t="n">
         <f aca="false">POWER(B53-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O53" s="0" t="s">
         <v>76</v>
@@ -24240,7 +24259,7 @@
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="0" t="n">
         <f aca="false">POWER(B54-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>76</v>
@@ -24546,7 +24565,7 @@
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="0" t="n">
         <f aca="false">POWER(B55-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>76</v>
@@ -24852,7 +24871,7 @@
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="0" t="n">
         <f aca="false">POWER(B56-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>76</v>
@@ -25158,7 +25177,7 @@
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="0" t="n">
         <f aca="false">POWER(B57-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>76</v>
@@ -25464,7 +25483,7 @@
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="0" t="n">
         <f aca="false">POWER(B58-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>76</v>
@@ -25770,7 +25789,7 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="0" t="n">
         <f aca="false">POWER(B59-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O59" s="0" t="s">
         <v>76</v>
@@ -26076,7 +26095,7 @@
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="0" t="n">
         <f aca="false">POWER(B60-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O60" s="0" t="s">
         <v>76</v>
@@ -26382,7 +26401,7 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="0" t="n">
         <f aca="false">POWER(B61-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O61" s="0" t="s">
         <v>76</v>
@@ -26688,7 +26707,7 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="0" t="n">
         <f aca="false">POWER(B62-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O62" s="0" t="s">
         <v>76</v>
@@ -26994,7 +27013,7 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="0" t="n">
         <f aca="false">POWER(B63-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O63" s="0" t="s">
         <v>76</v>
@@ -27300,7 +27319,7 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="0" t="n">
         <f aca="false">POWER(B64-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O64" s="0" t="s">
         <v>76</v>
@@ -27606,7 +27625,7 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="0" t="n">
         <f aca="false">POWER(B65-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O65" s="0" t="s">
         <v>76</v>
@@ -27912,7 +27931,7 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="0" t="n">
         <f aca="false">POWER(B66-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O66" s="0" t="s">
         <v>76</v>
@@ -28218,7 +28237,7 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="0" t="n">
         <f aca="false">POWER(B67-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O67" s="0" t="s">
         <v>76</v>
@@ -28524,7 +28543,7 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="0" t="n">
         <f aca="false">POWER(B68-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O68" s="0" t="s">
         <v>76</v>
@@ -28830,7 +28849,7 @@
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="0" t="n">
         <f aca="false">POWER(B69-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O69" s="0" t="s">
         <v>76</v>
@@ -29136,7 +29155,7 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="0" t="n">
         <f aca="false">POWER(B70-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O70" s="0" t="s">
         <v>76</v>
@@ -29442,7 +29461,7 @@
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="0" t="n">
         <f aca="false">POWER(B71-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O71" s="0" t="s">
         <v>76</v>
@@ -29748,7 +29767,7 @@
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D72" s="0" t="n">
         <f aca="false">POWER(B72-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O72" s="0" t="s">
         <v>76</v>
@@ -30054,7 +30073,7 @@
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="0" t="n">
         <f aca="false">POWER(B73-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O73" s="0" t="s">
         <v>76</v>
@@ -30360,7 +30379,7 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="0" t="n">
         <f aca="false">POWER(B74-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O74" s="0" t="s">
         <v>76</v>
@@ -30666,7 +30685,7 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="0" t="n">
         <f aca="false">POWER(B75-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O75" s="0" t="s">
         <v>76</v>
@@ -30972,7 +30991,7 @@
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="0" t="n">
         <f aca="false">POWER(B76-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O76" s="0" t="s">
         <v>76</v>
@@ -31278,7 +31297,7 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="0" t="n">
         <f aca="false">POWER(B77-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O77" s="0" t="s">
         <v>76</v>
@@ -31584,7 +31603,7 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="0" t="n">
         <f aca="false">POWER(B78-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O78" s="0" t="s">
         <v>76</v>
@@ -31890,7 +31909,7 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="0" t="n">
         <f aca="false">POWER(B79-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="O79" s="0" t="s">
         <v>76</v>
@@ -32196,7 +32215,7 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="0" t="n">
         <f aca="false">POWER(B80-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="T80" s="2" t="n">
         <f aca="false">AVERAGE(T45:T79)</f>
@@ -32392,7 +32411,7 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="0" t="n">
         <f aca="false">POWER(B81-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="T81" s="2" t="n">
         <v>0.000139601352231263</v>
@@ -32453,7 +32472,7 @@
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D82" s="0" t="n">
         <f aca="false">POWER(B82-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ82" s="2"/>
       <c r="BZ82" s="2"/>
@@ -32464,19 +32483,19 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D83" s="0" t="n">
         <f aca="false">POWER(B83-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D84" s="0" t="n">
         <f aca="false">POWER(B84-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="0" t="n">
         <f aca="false">POWER(B85-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ85" s="2"/>
       <c r="BR85" s="2"/>
@@ -32484,7 +32503,7 @@
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="0" t="n">
         <f aca="false">POWER(B86-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ86" s="2"/>
       <c r="BR86" s="2"/>
@@ -32492,7 +32511,7 @@
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D87" s="0" t="n">
         <f aca="false">POWER(B87-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ87" s="2"/>
       <c r="BR87" s="2"/>
@@ -32500,7 +32519,7 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="0" t="n">
         <f aca="false">POWER(B88-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ88" s="2"/>
       <c r="BR88" s="2"/>
@@ -32508,7 +32527,7 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="0" t="n">
         <f aca="false">POWER(B89-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ89" s="2"/>
       <c r="BR89" s="2"/>
@@ -32516,7 +32535,7 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D90" s="0" t="n">
         <f aca="false">POWER(B90-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ90" s="2"/>
       <c r="BR90" s="2"/>
@@ -32524,7 +32543,7 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="0" t="n">
         <f aca="false">POWER(B91-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ91" s="2"/>
       <c r="BR91" s="2"/>
@@ -32532,7 +32551,7 @@
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D92" s="0" t="n">
         <f aca="false">POWER(B92-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ92" s="2"/>
       <c r="BR92" s="2"/>
@@ -32540,7 +32559,7 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="0" t="n">
         <f aca="false">POWER(B93-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ93" s="2"/>
       <c r="BR93" s="2"/>
@@ -32548,7 +32567,7 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D94" s="0" t="n">
         <f aca="false">POWER(B94-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ94" s="2"/>
       <c r="BR94" s="2"/>
@@ -32556,7 +32575,7 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="0" t="n">
         <f aca="false">POWER(B95-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ95" s="2"/>
       <c r="BR95" s="2"/>
@@ -32564,7 +32583,7 @@
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="0" t="n">
         <f aca="false">POWER(B96-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ96" s="2"/>
       <c r="BR96" s="2"/>
@@ -32572,7 +32591,7 @@
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="0" t="n">
         <f aca="false">POWER(B97-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ97" s="2"/>
       <c r="BR97" s="2"/>
@@ -32580,7 +32599,7 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D98" s="0" t="n">
         <f aca="false">POWER(B98-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ98" s="2"/>
       <c r="BR98" s="2"/>
@@ -32588,7 +32607,7 @@
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="0" t="n">
         <f aca="false">POWER(B99-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ99" s="2"/>
       <c r="BR99" s="2"/>
@@ -32596,7 +32615,7 @@
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="0" t="n">
         <f aca="false">POWER(B100-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ100" s="2"/>
       <c r="BR100" s="2"/>
@@ -32604,7 +32623,7 @@
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="0" t="n">
         <f aca="false">POWER(B101-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ101" s="2"/>
       <c r="BR101" s="2"/>
@@ -32612,7 +32631,7 @@
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D102" s="0" t="n">
         <f aca="false">POWER(B102-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ102" s="2"/>
       <c r="BR102" s="2"/>
@@ -32620,7 +32639,7 @@
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="0" t="n">
         <f aca="false">POWER(B103-$C$3, 2)/($F$3-1)</f>
-        <v>5.12932818792205E-006</v>
+        <v>2.05065809437475E-005</v>
       </c>
       <c r="BQ103" s="2"/>
       <c r="BR103" s="2"/>
